--- a/data/Fluxes_Data.xlsx
+++ b/data/Fluxes_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sicil\LiverModel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9B7E74-3466-4F84-97CE-D3F6C2878AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D472AAC4-9F2C-49A8-AF38-17AC8FFB0E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30900" yWindow="3705" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_data" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>nh4_c</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>val</t>
+  </si>
+  <si>
+    <t>glc__D_c</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -78,6 +81,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,14 +105,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,7 +355,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -377,7 +408,7 @@
         <v>-3.46666666666667E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -385,8 +416,13 @@
         <v>-9.7199999999999995E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-3.7451699999999997E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -396,5 +432,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>